--- a/Penilaian-Tubes-PBO.xlsx
+++ b/Penilaian-Tubes-PBO.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project-X\PBO (Pemrograman Berorientasi Objek)\TugasBesar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6795" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Identitas Kelompok" sheetId="3" r:id="rId1"/>
@@ -13,9 +18,9 @@
     <sheet name="Tahap 3" sheetId="5" r:id="rId4"/>
     <sheet name="Nilai Akhir" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>Nilai Kelompok (rata-rata nilai per objek penilaian)</t>
   </si>
@@ -279,12 +284,15 @@
   <si>
     <t>Exception handling</t>
   </si>
+  <si>
+    <t>1. 60% GUI, dan MVC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,22 +628,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -668,6 +673,15 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -680,23 +694,23 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -705,12 +719,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1000,28 +1008,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.140625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1029,7 +1037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -1037,14 +1045,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -1053,7 +1061,7 @@
       </c>
       <c r="C5" s="22"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1062,7 +1070,7 @@
       </c>
       <c r="C6" s="22"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>17</v>
       </c>
@@ -1073,7 +1081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="9" t="s">
         <v>48</v>
@@ -1082,7 +1090,7 @@
         <v>1103130066</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="9" t="s">
         <v>49</v>
@@ -1091,7 +1099,7 @@
         <v>1103130063</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="9" t="s">
         <v>50</v>
@@ -1100,7 +1108,7 @@
         <v>1103134341</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="9" t="s">
         <v>51</v>
@@ -1109,12 +1117,12 @@
         <v>1103130045</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>42</v>
       </c>
@@ -1122,7 +1130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>44</v>
       </c>
@@ -1143,14 +1151,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
@@ -1160,304 +1168,304 @@
     <col min="7" max="7" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="30"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="32">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
         <f>'Identitas Kelompok'!C8</f>
         <v>1103130066</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="15">
         <v>2</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="41">
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="43">
         <v>3</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="46"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="32">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
         <f>'Identitas Kelompok'!C9</f>
         <v>1103130063</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="38" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="38.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="41">
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="43">
         <v>3</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="46"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="32">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
         <f>'Identitas Kelompok'!C10</f>
         <v>1103134341</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="38" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="15">
         <v>2</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="45"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="41">
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="43">
         <v>3</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="46"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="32">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
         <f>'Identitas Kelompok'!C11</f>
         <v>1103130045</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="38" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="15">
         <v>2</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="41">
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="43">
         <v>3</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="46"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="26" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="42"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="30"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="12">
         <f>AVERAGE(G17:G19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A22" s="29" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="30"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A23" s="47">
+      <c r="G22" s="51"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26">
         <f>A3</f>
         <v>1103130066</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="11">
         <f>G3*0.6</f>
         <v>0</v>
@@ -1466,19 +1474,19 @@
         <f>G20*0.4</f>
         <v>0</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="29">
         <f>E23+D23</f>
         <v>0</v>
       </c>
-      <c r="G23" s="54"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A24" s="47">
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26">
         <f>A6</f>
         <v>1103130063</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="11">
         <f>G6*0.6</f>
         <v>0</v>
@@ -1487,19 +1495,19 @@
         <f>G20*0.4</f>
         <v>0</v>
       </c>
-      <c r="F24" s="53">
+      <c r="F24" s="29">
         <f t="shared" ref="F24:F25" si="0">E24+D24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="54"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A25" s="47">
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26">
         <f>A9</f>
         <v>1103134341</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="11">
         <f>G9*0.6</f>
         <v>0</v>
@@ -1508,19 +1516,19 @@
         <f>G20*0.4</f>
         <v>0</v>
       </c>
-      <c r="F25" s="53">
+      <c r="F25" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="54"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A26" s="47">
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26">
         <f>A12</f>
         <v>1103130045</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="11">
         <f>G12*0.6</f>
         <v>0</v>
@@ -1529,15 +1537,35 @@
         <f>G20*0.4</f>
         <v>0</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="29">
         <f t="shared" ref="F26" si="1">E26+D26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="54"/>
+      <c r="G26" s="30"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="1APX7TC2MEsiOQ40KjfIvdFosoMYjzoRed+4cwB0kSzYNd/SVviuiD6q0DsjBg1Oak75KxwzKfC7eowrsSlO0Q==" saltValue="HpBxL74n497UaTX32qC9tw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="36">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B5"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="A20:F20"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="A26:C26"/>
@@ -1554,26 +1582,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="A15:G15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B5"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G3:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1581,14 +1589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
@@ -1598,89 +1606,89 @@
     <col min="7" max="7" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="30"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="32">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
         <f>'Identitas Kelompok'!C8</f>
         <v>1103130066</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="15">
         <v>2</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="41">
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="43">
         <v>3</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="46"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="32">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
         <f>'Identitas Kelompok'!C9</f>
         <v>1103130063</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="38" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="15">
         <v>2</v>
       </c>
@@ -1689,215 +1697,215 @@
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="41">
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="43">
         <v>3</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="46"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="32">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
         <f>'Identitas Kelompok'!C10</f>
         <v>1103134341</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="38" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="15">
         <v>2</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="45"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="41">
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="43">
         <v>3</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="46"/>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A12" s="32">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
         <f>'Identitas Kelompok'!C11</f>
         <v>1103130045</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="38" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="15">
         <v>2</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="41">
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="43">
         <v>3</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="46"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="26" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="42"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="30"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="12">
         <f>AVERAGE(G17:G19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A22" s="29" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="30"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A23" s="47">
+      <c r="G22" s="51"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26">
         <f>A3</f>
         <v>1103130066</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="11">
         <f>G3*0.6</f>
         <v>0</v>
@@ -1906,19 +1914,19 @@
         <f>G20*0.4</f>
         <v>0</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="29">
         <f>E23+D23</f>
         <v>0</v>
       </c>
-      <c r="G23" s="54"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A24" s="47">
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26">
         <f>A6</f>
         <v>1103130063</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="11">
         <f>G6*0.6</f>
         <v>0</v>
@@ -1927,19 +1935,19 @@
         <f>G20*0.4</f>
         <v>0</v>
       </c>
-      <c r="F24" s="53">
+      <c r="F24" s="29">
         <f t="shared" ref="F24:F26" si="0">E24+D24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="54"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A25" s="47">
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26">
         <f>A9</f>
         <v>1103134341</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="11">
         <f>G9*0.6</f>
         <v>0</v>
@@ -1948,19 +1956,19 @@
         <f>G20*0.4</f>
         <v>0</v>
       </c>
-      <c r="F25" s="53">
+      <c r="F25" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="54"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A26" s="47">
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26">
         <f>A12</f>
         <v>1103130045</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="11">
         <f>G12*0.6</f>
         <v>0</v>
@@ -1969,28 +1977,22 @@
         <f>G20*0.4</f>
         <v>0</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="54"/>
+      <c r="G26" s="30"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="0ddc9Ey1etgt65gZb0SFqXn+2hg0aKuPoHVTxMtalm+Zd0PPzgqPITOJ9W4PkV7CVTCujkP4Fmh4Y3xs30vUng==" saltValue="1hhNLiCxb7OisMyBE4BBcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="36">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="F22:G22"/>
@@ -2007,13 +2009,19 @@
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2021,14 +2029,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
@@ -2038,349 +2046,349 @@
     <col min="7" max="7" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" thickBot="1">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="30"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="32">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
         <f>'Identitas Kelompok'!C8</f>
         <v>1103130066</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="38">
+      <c r="B3" s="32"/>
+      <c r="C3" s="37">
         <v>1</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="15">
         <v>2</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="41">
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="43">
         <v>3</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="46"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="32">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
         <f>'Identitas Kelompok'!C9</f>
         <v>1103130063</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="38">
-        <v>1</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="15">
         <v>2</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="41">
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="43">
         <v>3</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="46"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="32">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
         <f>'Identitas Kelompok'!C10</f>
         <v>1103134341</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="38">
+      <c r="B9" s="32"/>
+      <c r="C9" s="37">
         <v>1</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="15">
         <v>2</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="45"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="41">
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="43">
         <v>3</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="46"/>
-    </row>
-    <row r="12" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A12" s="32">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
         <f>'Identitas Kelompok'!C11</f>
         <v>1103130045</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="38">
+      <c r="B12" s="32"/>
+      <c r="C12" s="37">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="15">
         <v>2</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="41">
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="43">
         <v>3</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="46"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="26" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="42"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="30"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>6</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A23" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="12">
         <f>AVERAGE(G17:G22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A25" s="29" t="s">
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A26" s="47">
+      <c r="G25" s="51"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26">
         <f>A3</f>
         <v>1103130066</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="11">
         <f>G3*0.6</f>
         <v>0</v>
@@ -2389,19 +2397,19 @@
         <f>G23*0.4</f>
         <v>0</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="29">
         <f>E26+D26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="54"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="47">
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26">
         <f>A6</f>
         <v>1103130063</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="11">
         <f>G6*0.6</f>
         <v>0</v>
@@ -2410,19 +2418,19 @@
         <f>G23*0.4</f>
         <v>0</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F27" s="29">
         <f t="shared" ref="F27:F29" si="0">E27+D27</f>
         <v>0</v>
       </c>
-      <c r="G27" s="54"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A28" s="47">
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26">
         <f>A9</f>
         <v>1103134341</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="11">
         <f>G9*0.6</f>
         <v>0</v>
@@ -2431,19 +2439,19 @@
         <f>G23*0.4</f>
         <v>0</v>
       </c>
-      <c r="F28" s="53">
+      <c r="F28" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="54"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A29" s="47">
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26">
         <f>A12</f>
         <v>1103130045</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="11">
         <f>G12*0.6</f>
         <v>0</v>
@@ -2452,15 +2460,40 @@
         <f>G23*0.4</f>
         <v>0</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="54"/>
+      <c r="G29" s="30"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="rk5NKd7OlJtMj++ABbma5xq5/a34FGW5PaSlS+ILn3kuX5r0MbUGlPQ/XnRO4c3tchm6N2OOCGCqzkGykKLCrA==" saltValue="HY+NaNXdyIfV2hUItVAKSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="39">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A3:B5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="B19:F19"/>
@@ -2475,31 +2508,6 @@
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A3:B5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2507,14 +2515,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -2523,8 +2531,8 @@
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="55" t="s">
         <v>6</v>
       </c>
@@ -2543,7 +2551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="56"/>
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
@@ -2558,7 +2566,7 @@
       </c>
       <c r="G4" s="56"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2587,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2616,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -2645,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>4</v>
       </c>
